--- a/Excel Calculations W02_Challenge03.xlsx
+++ b/Excel Calculations W02_Challenge03.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA ANALYSIS AND DATA SCIENCE PROJECTS\Excel Skills for Business Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{927AC562-6E28-4869-990C-E4D322ECD757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8F29EF-83BD-452D-89A4-6AFAF6343A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title page" sheetId="3" r:id="rId1"/>
     <sheet name="Weekly Payroll Challenge" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -498,7 +498,14 @@
     <cellStyle name="Title 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Total" xfId="3" builtinId="25"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4026,7 +4033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I6" sqref="I6:O6"/>
     </sheetView>
   </sheetViews>
@@ -4299,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
@@ -4371,15 +4378,24 @@
       <c r="D5" s="4">
         <v>35.6</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <f>C5*D5</f>
+        <v>1530.8</v>
+      </c>
       <c r="F5" s="4">
         <v>150</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4">
+        <f>F5+E5</f>
+        <v>1680.8</v>
+      </c>
       <c r="H5" s="4">
         <v>430.87</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4">
+        <f>G5-H5</f>
+        <v>1249.9299999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="25.2">
       <c r="A6" s="2" t="s">
@@ -4394,15 +4410,24 @@
       <c r="D6" s="4">
         <v>32.1</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <f t="shared" ref="E6:E8" si="0">C6*D6</f>
+        <v>1123.5</v>
+      </c>
       <c r="F6" s="4">
         <v>150</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4">
+        <f t="shared" ref="G6:G8" si="1">F6+E6</f>
+        <v>1273.5</v>
+      </c>
       <c r="H6" s="4">
         <v>322.56</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4">
+        <f t="shared" ref="I6:I8" si="2">G6-H6</f>
+        <v>950.94</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="25.2">
       <c r="A7" s="2" t="s">
@@ -4417,15 +4442,24 @@
       <c r="D7" s="4">
         <v>12.5</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
       <c r="F7" s="4">
         <v>150</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
       <c r="H7" s="4">
         <v>89.55</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4">
+        <f t="shared" si="2"/>
+        <v>410.45</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="25.2">
       <c r="A8" s="2" t="s">
@@ -4440,15 +4474,24 @@
       <c r="D8" s="4">
         <v>32.4</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>502.2</v>
+      </c>
       <c r="F8" s="4">
         <v>150</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>652.20000000000005</v>
+      </c>
       <c r="H8" s="4">
         <v>232.45</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>419.75000000000006</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="25.2">
       <c r="H9" s="5"/>
@@ -4461,11 +4504,20 @@
       <c r="B10" s="6"/>
       <c r="C10" s="16"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7">
+        <f>SUM(E5:E8)</f>
+        <v>3506.5</v>
+      </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <f>SUM(G5:G8)</f>
+        <v>4106.5</v>
+      </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <f>SUM(I5:I8)</f>
+        <v>3031.0699999999997</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="25.8" thickTop="1"/>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="25.2">
@@ -4479,22 +4531,22 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:I10">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(IFERROR(_xlfn.ISFORMULA(C10),TRUE),C10=C5+C6+C7+C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E8">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>AND(IFERROR(_xlfn.ISFORMULA(E5),TRUE),E5=C5*D5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G8">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND(IFERROR(_xlfn.ISFORMULA(G5),TRUE),G5=E5+F5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I8">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(IFERROR(_xlfn.ISFORMULA(I5),TRUE),I5=G5-H5)</formula>
     </cfRule>
   </conditionalFormatting>
